--- a/hard/Project Outputs for dimmer_v2/BOM/Bill of Materials-dimmer_v2.xlsx
+++ b/hard/Project Outputs for dimmer_v2/BOM/Bill of Materials-dimmer_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Radio\Jobe\dimmer_v2\hard\Project Outputs for dimmer_v2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C66D481-FD0C-4D1D-87B6-F9374C135961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED35EFA7-35D9-481B-BE1D-1552FBC1A8A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="360" windowWidth="20952" windowHeight="11316" xr2:uid="{B4F835D3-2980-47C9-82A3-9237BF63BDC7}"/>
+    <workbookView xWindow="1224" yWindow="288" windowWidth="20952" windowHeight="11316" xr2:uid="{AC1A561A-F8AB-4A63-9A00-A16AC5AB8E97}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-dimmer_v2" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="82">
   <si>
     <t>Designator</t>
   </si>
@@ -155,7 +155,7 @@
     <t>0402 3K</t>
   </si>
   <si>
-    <t>R2, R6, R14</t>
+    <t>R2, R4, R6, R14</t>
   </si>
   <si>
     <t>0402 10K</t>
@@ -279,16 +279,13 @@
   </si>
   <si>
     <t>0402 2.2uF</t>
-  </si>
-  <si>
-    <t>MC7805BTG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,15 +294,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,12 +305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,15 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,15 +661,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C84370D4-4B9C-4980-A0F5-D233B3666A3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEAE66ED-7898-4FA2-8B1E-6457EA3C8E06}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -703,7 +676,7 @@
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,7 +693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -737,24 +710,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -771,236 +744,233 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>82</v>
+      <c r="E16" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="4">
         <v>5</v>
       </c>
     </row>
@@ -1018,121 +988,121 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="4">
         <v>2</v>
       </c>
     </row>
